--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202304_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202304_4_urine_filtration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4E8E49-87C7-4ED0-B944-16399754923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73398E76-292E-4854-84BB-E43A1F96B6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1035" windowWidth="28020" windowHeight="14820" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1466,12 +1466,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>tg_sch_sth_impact_202304_4_urine_filtration</t>
-  </si>
-  <si>
-    <t>(2023 Avril) - 4. SCH/STH - Urine Filtration</t>
-  </si>
-  <si>
     <t>regex(.,'^[a-zA-Z]{2,4}$')</t>
   </si>
   <si>
@@ -1482,6 +1476,12 @@
   </si>
   <si>
     <t>subdistrict_list = ${u_usp}</t>
+  </si>
+  <si>
+    <t>(2023 Avril) - 4. SCH/STH - Urine Filtration V2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202304_4_urine_filtration_v2</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1765,6 +1765,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2049,11 +2050,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2123,10 +2124,10 @@
       <c r="D2" s="13"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2163,7 +2164,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>18</v>
@@ -2203,7 +2204,7 @@
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="40" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="25" customFormat="1">
@@ -9744,14 +9745,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="42" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9767,17 +9769,17 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="41" t="s">
-        <v>473</v>
-      </c>
-      <c r="B2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>471</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>